--- a/Banco Central/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/Banco Central/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8995,13 +8998,13 @@
         <v>226</v>
       </c>
       <c r="B211">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="C211">
         <v>97.3</v>
       </c>
       <c r="D211">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E211">
         <v>106.3</v>
@@ -9016,7 +9019,7 @@
         <v>82.3</v>
       </c>
       <c r="M211">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="R211">
         <v>8971</v>
@@ -9353,7 +9356,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="D222">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E222">
         <v>110.4</v>
@@ -9365,10 +9368,10 @@
         <v>144.4</v>
       </c>
       <c r="L222">
-        <v>127.9</v>
+        <v>127.7</v>
       </c>
       <c r="M222">
-        <v>214.2</v>
+        <v>214.8</v>
       </c>
       <c r="R222">
         <v>34130</v>
@@ -9378,11 +9381,40 @@
       <c r="A223" t="s">
         <v>238</v>
       </c>
+      <c r="B223">
+        <v>100.5</v>
+      </c>
+      <c r="C223">
+        <v>96.3</v>
+      </c>
+      <c r="D223">
+        <v>102.6</v>
+      </c>
+      <c r="E223">
+        <v>108.9</v>
+      </c>
       <c r="J223">
         <v>6781.7</v>
       </c>
+      <c r="K223">
+        <v>138.2</v>
+      </c>
+      <c r="L223">
+        <v>124.1</v>
+      </c>
+      <c r="M223">
+        <v>197.4</v>
+      </c>
       <c r="R223">
         <v>35499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" t="s">
+        <v>239</v>
+      </c>
+      <c r="R224">
+        <v>38226</v>
       </c>
     </row>
   </sheetData>
